--- a/excel/Sergio.xlsx
+++ b/excel/Sergio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Google Drive\Ingenieria Informatica\Segundo cuatri\POO\Practica obligatoria\Pec1\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Google Drive\Ingenieria Informatica\Segundo cuatri\POO\Practica obligatoria\CooperativaAgricola\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C4325-E5D4-4A5F-9887-4D82CF0D7F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908D4CA3-4186-494E-BF9A-DAB7D32B12C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -413,19 +411,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,7 +424,15 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,7 +889,7 @@
   <dimension ref="A1:T185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,14 +913,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="18"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
@@ -984,7 +982,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="6">
@@ -992,23 +990,23 @@
       </c>
       <c r="C3" s="6">
         <f ca="1">RANDBETWEEN(0,180)</f>
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="D3" s="6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.IFS(C3&lt;=30,"punto A",AND(C3&lt;=50)=AND(C3&gt;30)=TRUE,"Punto B",AND(C3&lt;=100)=AND(C3&gt;50)=TRUE,"Punto C",AND(C3&lt;=150)=AND(C3&gt;100)=TRUE,"Punto D",C3&gt;150,"Punto E")</f>
-        <v>Punto E</v>
+        <v>Punto D</v>
       </c>
       <c r="F3" s="8">
         <f ca="1">RANDBETWEEN(10,100)/10</f>
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="G3" s="9">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">_xlfn.IFS(G3&lt;=5,"Perecedero",G3&gt;5,"No pereceredo")</f>
@@ -1016,15 +1014,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">RANDBETWEEN(0,100)/100</f>
-        <v>0.95</v>
+        <v>0.16</v>
       </c>
       <c r="K3" s="7" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">_xlfn.IFS(1=G3,1.99,G3=2,2.5,G3=3,0.9,4=G3,4.99,G3=5,2.99,G3=6,0.5,G3=7,0.9,8=G3,3,G3=9,1.09,G3=10,0.9)</f>
-        <v>0.9</v>
+        <v>4.99</v>
       </c>
       <c r="L3" s="3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">_xlfn.IFS(H3="Perecedero",0.15,H3="No pereceredo",0.1)</f>
@@ -1036,7 +1034,7 @@
       </c>
       <c r="N3" s="3">
         <f t="shared" ref="N3:N12" ca="1" si="0">C3*1.5</f>
-        <v>265.5</v>
+        <v>187.5</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" ref="O3:O12" ca="1" si="1">(0.5*P3*K3*1000+0.05*P3*50)*F3</f>
@@ -1064,58 +1062,58 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="6">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" ref="C4:C12" ca="1" si="4">RANDBETWEEN(0,180)</f>
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D4" s="6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.IFS(C4&lt;=30,"punto A",AND(C4&lt;=50)=AND(C4&gt;30)=TRUE,"Punto B",AND(C4&lt;=100)=AND(C4&gt;50)=TRUE,"Punto C",AND(C4&lt;=150)=AND(C4&gt;100)=TRUE,"Punto D",C4&gt;150,"Punto E")</f>
-        <v>punto A</v>
+        <v>Punto D</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F12" ca="1" si="5">RANDBETWEEN(10,100)/10</f>
-        <v>4.9000000000000004</v>
+        <v>7.7</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G12" ca="1" si="6">RANDBETWEEN(1,10)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">_xlfn.IFS(G4&lt;=5,"Perecedero",G4&gt;5,"No pereceredo")</f>
-        <v>No pereceredo</v>
+        <v>Perecedero</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I12" ca="1" si="7">RANDBETWEEN(0,10)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" ref="J4:J12" ca="1" si="8">RANDBETWEEN(0,100)/100</f>
-        <v>0.82</v>
+        <v>0.22</v>
       </c>
       <c r="K4" s="7" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">_xlfn.IFS(1=G4,1.99,G4=2,2.5,G4=3,0.9,4=G4,4.99,G4=5,2.99,G4=6,0.5,G4=7,0.9,8=G4,3,G4=9,1.09,G4=10,0.9)</f>
-        <v>0.9</v>
+        <v>2.99</v>
       </c>
       <c r="L4" s="3" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">_xlfn.IFS(H4="Perecedero",0.15,H4="No pereceredo",0.1)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.IFS(C4&gt;100,"GyP Logistica",C4&lt;100,"Logistica Propia")</f>
-        <v>Logistica Propia</v>
+        <v>GyP Logistica</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13.5</v>
+        <v>220.5</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -1127,125 +1125,125 @@
       </c>
       <c r="Q4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3" cm="1">
         <f t="array" aca="1" ref="R4" ca="1">_xlfn.IFS("No pereceredo"=H4,C4-50*TRUNC(C4/50),"Perecedero"=H4,0)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S4" s="13">
         <f t="shared" ref="S4:S12" ca="1" si="9">Q4+O4</f>
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="T4" s="13">
         <f ca="1">S4/(F4*1000)</f>
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B12" si="10">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="6">
         <f ca="1">RANDBETWEEN(0,180)</f>
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D12" ca="1" si="11">RANDBETWEEN(0,100)</f>
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.IFS(C5&lt;=30,"punto A",AND(C5&lt;=50)=AND(C5&gt;30)=TRUE,"Punto B",AND(C5&lt;=100)=AND(C5&gt;50)=TRUE,"Punto C",AND(C5&lt;=150)=AND(C5&gt;100)=TRUE,"Punto D",C5&gt;150,"Punto E")</f>
-        <v>punto A</v>
+        <v>Punto D</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H5" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">_xlfn.IFS(G5&lt;=5,"Perecedero",G5&gt;5,"No pereceredo")</f>
-        <v>Perecedero</v>
+        <v>No pereceredo</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="K5" s="7" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">_xlfn.IFS(1=G5,1.99,G5=2,2.5,G5=3,0.9,4=G5,4.99,G5=5,2.99,G5=6,0.5,G5=7,0.9,8=G5,3,G5=9,1.09,G5=10,0.9)</f>
-        <v>4.99</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L5" s="3" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">_xlfn.IFS(H5="Perecedero",0.15,H5="No pereceredo",0.1)</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="M5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.IFS(C5&gt;100,"GyP Logistica",C5&lt;100,"Logistica Propia")</f>
-        <v>Logistica Propia</v>
+        <v>GyP Logistica</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3942</v>
       </c>
       <c r="P5" s="3" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">_xlfn.IFS("No pereceredo"=H5,TRUNC(C5/50),"Perecedero"=H5,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>288.00000000000006</v>
       </c>
       <c r="R5" s="3" cm="1">
         <f t="array" aca="1" ref="R5" ca="1">_xlfn.IFS("No pereceredo"=H5,C5-50*TRUNC(C5/50),"Perecedero"=H5,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S5" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4230</v>
       </c>
       <c r="T5" s="13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.IFS(C6&lt;=30,"punto A",AND(C6&lt;=50)=AND(C6&gt;30)=TRUE,"Punto B",AND(C6&lt;=100)=AND(C6&gt;50)=TRUE,"Punto C",AND(C6&lt;=150)=AND(C6&gt;100)=TRUE,"Punto D",C6&gt;150,"Punto E")</f>
-        <v>Punto C</v>
+        <v>Punto B</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">_xlfn.IFS(G6&lt;=5,"Perecedero",G6&gt;5,"No pereceredo")</f>
@@ -1253,15 +1251,15 @@
       </c>
       <c r="I6" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.59</v>
+        <v>0.23</v>
       </c>
       <c r="K6" s="7" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">_xlfn.IFS(1=G6,1.99,G6=2,2.5,G6=3,0.9,4=G6,4.99,G6=5,2.99,G6=6,0.5,G6=7,0.9,8=G6,3,G6=9,1.09,G6=10,0.9)</f>
-        <v>2.5</v>
+        <v>4.99</v>
       </c>
       <c r="L6" s="3" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">_xlfn.IFS(H6="Perecedero",0.15,H6="No pereceredo",0.1)</f>
@@ -1273,7 +1271,7 @@
       </c>
       <c r="N6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>109.5</v>
+        <v>73.5</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -1301,58 +1299,58 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">_xlfn.IFS(C7&lt;=30,"punto A",AND(C7&lt;=50)=AND(C7&gt;30)=TRUE,"Punto B",AND(C7&lt;=100)=AND(C7&gt;50)=TRUE,"Punto C",AND(C7&lt;=150)=AND(C7&gt;100)=TRUE,"Punto D",C7&gt;150,"Punto E")</f>
-        <v>Punto D</v>
+        <v>punto A</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">_xlfn.IFS(G7&lt;=5,"Perecedero",G7&gt;5,"No pereceredo")</f>
-        <v>Perecedero</v>
+        <v>No pereceredo</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="K7" s="7" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">_xlfn.IFS(1=G7,1.99,G7=2,2.5,G7=3,0.9,4=G7,4.99,G7=5,2.99,G7=6,0.5,G7=7,0.9,8=G7,3,G7=9,1.09,G7=10,0.9)</f>
-        <v>1.99</v>
+        <v>0.5</v>
       </c>
       <c r="L7" s="3" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">_xlfn.IFS(H7="Perecedero",0.15,H7="No pereceredo",0.1)</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="M7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.IFS(C7&gt;100,"GyP Logistica",C7&lt;100,"Logistica Propia")</f>
-        <v>GyP Logistica</v>
+        <v>Logistica Propia</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>223.5</v>
+        <v>43.5</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -1364,34 +1362,34 @@
       </c>
       <c r="Q7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2812.9999999999995</v>
       </c>
       <c r="R7" s="3" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">_xlfn.IFS("No pereceredo"=H7,C7-50*TRUNC(C7/50),"Perecedero"=H7,0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S7" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>2812.9999999999995</v>
       </c>
       <c r="T7" s="13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_xlfn.IFS(C8&lt;=30,"punto A",AND(C8&lt;=50)=AND(C8&gt;30)=TRUE,"Punto B",AND(C8&lt;=100)=AND(C8&gt;50)=TRUE,"Punto C",AND(C8&lt;=150)=AND(C8&gt;100)=TRUE,"Punto D",C8&gt;150,"Punto E")</f>
@@ -1399,11 +1397,11 @@
       </c>
       <c r="F8" s="8">
         <f ca="1">RANDBETWEEN(10,100)/10</f>
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">_xlfn.IFS(G8&lt;=5,"Perecedero",G8&gt;5,"No pereceredo")</f>
@@ -1411,15 +1409,15 @@
       </c>
       <c r="I8" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13</v>
+        <v>0.49</v>
       </c>
       <c r="K8" s="7" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">_xlfn.IFS(1=G8,1.99,G8=2,2.5,G8=3,0.9,4=G8,4.99,G8=5,2.99,G8=6,0.5,G8=7,0.9,8=G8,3,G8=9,1.09,G8=10,0.9)</f>
-        <v>2.5</v>
+        <v>1.99</v>
       </c>
       <c r="L8" s="3" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">_xlfn.IFS(H8="Perecedero",0.15,H8="No pereceredo",0.1)</f>
@@ -1431,7 +1429,7 @@
       </c>
       <c r="N8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
+        <v>256.5</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -1459,26 +1457,26 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">_xlfn.IFS(C9&lt;=30,"punto A",AND(C9&lt;=50)=AND(C9&gt;30)=TRUE,"Punto B",AND(C9&lt;=100)=AND(C9&gt;50)=TRUE,"Punto C",AND(C9&lt;=150)=AND(C9&gt;100)=TRUE,"Punto D",C9&gt;150,"Punto E")</f>
-        <v>Punto C</v>
+        <v>Punto D</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>9.4</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" ca="1" si="6"/>
@@ -1490,7 +1488,7 @@
       </c>
       <c r="I9" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="8"/>
@@ -1506,50 +1504,50 @@
       </c>
       <c r="M9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.IFS(C9&gt;100,"GyP Logistica",C9&lt;100,"Logistica Propia")</f>
-        <v>Logistica Propia</v>
+        <v>GyP Logistica</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>124.5</v>
+        <v>214.5</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1357.5</v>
+        <v>8507</v>
       </c>
       <c r="P9" s="3" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">_xlfn.IFS("No pereceredo"=H9,TRUNC(C9/50),"Perecedero"=H9,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>990</v>
+        <v>4042</v>
       </c>
       <c r="R9" s="3" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">_xlfn.IFS("No pereceredo"=H9,C9-50*TRUNC(C9/50),"Perecedero"=H9,0)</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S9" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>2347.5</v>
+        <v>12549</v>
       </c>
       <c r="T9" s="13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78249999999999997</v>
+        <v>1.335</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">_xlfn.IFS(C10&lt;=30,"punto A",AND(C10&lt;=50)=AND(C10&gt;30)=TRUE,"Punto B",AND(C10&lt;=100)=AND(C10&gt;50)=TRUE,"Punto C",AND(C10&lt;=150)=AND(C10&gt;100)=TRUE,"Punto D",C10&gt;150,"Punto E")</f>
@@ -1557,11 +1555,11 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">_xlfn.IFS(G10&lt;=5,"Perecedero",G10&gt;5,"No pereceredo")</f>
@@ -1569,15 +1567,15 @@
       </c>
       <c r="I10" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="K10" s="7" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">_xlfn.IFS(1=G10,1.99,G10=2,2.5,G10=3,0.9,4=G10,4.99,G10=5,2.99,G10=6,0.5,G10=7,0.9,8=G10,3,G10=9,1.09,G10=10,0.9)</f>
-        <v>2.5</v>
+        <v>2.99</v>
       </c>
       <c r="L10" s="3" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">_xlfn.IFS(H10="Perecedero",0.15,H10="No pereceredo",0.1)</f>
@@ -1589,7 +1587,7 @@
       </c>
       <c r="N10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>178.5</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -1617,30 +1615,30 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="6">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">_xlfn.IFS(C11&lt;=30,"punto A",AND(C11&lt;=50)=AND(C11&gt;30)=TRUE,"Punto B",AND(C11&lt;=100)=AND(C11&gt;50)=TRUE,"Punto C",AND(C11&lt;=150)=AND(C11&gt;100)=TRUE,"Punto D",C11&gt;150,"Punto E")</f>
-        <v>Punto D</v>
+        <v>Punto C</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>9.3000000000000007</v>
+        <v>3.3</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">_xlfn.IFS(G11&lt;=5,"Perecedero",G11&gt;5,"No pereceredo")</f>
@@ -1648,15 +1646,15 @@
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.77</v>
+        <v>0.41</v>
       </c>
       <c r="K11" s="7" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">_xlfn.IFS(1=G11,1.99,G11=2,2.5,G11=3,0.9,4=G11,4.99,G11=5,2.99,G11=6,0.5,G11=7,0.9,8=G11,3,G11=9,1.09,G11=10,0.9)</f>
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="L11" s="3" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">_xlfn.IFS(H11="Perecedero",0.15,H11="No pereceredo",0.1)</f>
@@ -1664,114 +1662,114 @@
       </c>
       <c r="M11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.IFS(C11&gt;100,"GyP Logistica",C11&lt;100,"Logistica Propia")</f>
-        <v>GyP Logistica</v>
+        <v>Logistica Propia</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>27946.500000000004</v>
+        <v>1493.25</v>
       </c>
       <c r="P11" s="3" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">_xlfn.IFS("No pereceredo"=H11,TRUNC(C11/50),"Perecedero"=H11,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3534.0000000000005</v>
+        <v>726</v>
       </c>
       <c r="R11" s="3" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">_xlfn.IFS("No pereceredo"=H11,C11-50*TRUNC(C11/50),"Perecedero"=H11,0)</f>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="S11" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>31480.500000000004</v>
+        <v>2219.25</v>
       </c>
       <c r="T11" s="13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3850000000000002</v>
+        <v>0.67249999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="6">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xlfn.IFS(C12&lt;=30,"punto A",AND(C12&lt;=50)=AND(C12&gt;30)=TRUE,"Punto B",AND(C12&lt;=100)=AND(C12&gt;50)=TRUE,"Punto C",AND(C12&lt;=150)=AND(C12&gt;100)=TRUE,"Punto D",C12&gt;150,"Punto E")</f>
-        <v>Punto D</v>
+        <v>Punto C</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">_xlfn.IFS(G12&lt;=5,"Perecedero",G12&gt;5,"No pereceredo")</f>
-        <v>No pereceredo</v>
+        <v>Perecedero</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.06</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K12" s="7" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">_xlfn.IFS(1=G12,1.99,G12=2,2.5,G12=3,0.9,4=G12,4.99,G12=5,2.99,G12=6,0.5,G12=7,0.9,8=G12,3,G12=9,1.09,G12=10,0.9)</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L12" s="3" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">_xlfn.IFS(H12="Perecedero",0.15,H12="No pereceredo",0.1)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.IFS(C12&gt;100,"GyP Logistica",C12&lt;100,"Logistica Propia")</f>
-        <v>GyP Logistica</v>
+        <v>Logistica Propia</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>148.5</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20434</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">_xlfn.IFS("No pereceredo"=H12,TRUNC(C12/50),"Perecedero"=H12,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3128</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3" cm="1">
         <f t="array" aca="1" ref="R12" ca="1">_xlfn.IFS("No pereceredo"=H12,C12-50*TRUNC(C12/50),"Perecedero"=H12,0)</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="S12" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>23562</v>
+        <v>0</v>
       </c>
       <c r="T12" s="13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4649999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -1845,36 +1843,36 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N15" s="1"/>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="15:17" x14ac:dyDescent="0.3">
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="20"/>
+      <c r="P17" s="18"/>
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="15:17" x14ac:dyDescent="0.3">
